--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416552A2-74C3-4CBC-A5FB-E7F80DB66132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E35CD-7926-4603-8947-50324BB711F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="111">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -301,6 +301,66 @@
   </si>
   <si>
     <t>HON. AGNES D. TOLENTINO</t>
+  </si>
+  <si>
+    <t>VICE MAYOR</t>
+  </si>
+  <si>
+    <t>BANGKOK THAILAND</t>
+  </si>
+  <si>
+    <t>DAN SANARES</t>
+  </si>
+  <si>
+    <t>NURSE III</t>
+  </si>
+  <si>
+    <t>TAIWAN</t>
+  </si>
+  <si>
+    <t>JAN 13-17, 2023</t>
+  </si>
+  <si>
+    <t>JAN 24 -FEB 03, 2023</t>
+  </si>
+  <si>
+    <t>FRANCE AND CANADA</t>
+  </si>
+  <si>
+    <t>PARIS, TEL AVIV, ISRAEL</t>
+  </si>
+  <si>
+    <t>FEB. 18 - 24, 2023</t>
+  </si>
+  <si>
+    <t>BALI INDONESIA</t>
+  </si>
+  <si>
+    <t>MARCH 1-2, 2023</t>
+  </si>
+  <si>
+    <t>MARCH 10-12, 2023</t>
+  </si>
+  <si>
+    <t>MARCH 10-12, 2022</t>
+  </si>
+  <si>
+    <t>ENGR. GREGORIO M. MONREAL</t>
+  </si>
+  <si>
+    <t>EXE. ASST TO THE MAYOR</t>
+  </si>
+  <si>
+    <t>MARCH 21-23, 2023</t>
+  </si>
+  <si>
+    <t>MARIBEL ROMILLA</t>
+  </si>
+  <si>
+    <t>CASUAL EMPLOYEE</t>
+  </si>
+  <si>
+    <t>MARCH 31, APRIL 9, 2023</t>
   </si>
 </sst>
 </file>
@@ -437,7 +497,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -470,13 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,11 +545,26 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -819,7 +888,7 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -837,51 +906,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -899,16 +968,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="5" t="s">
         <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -923,16 +992,16 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -947,16 +1016,16 @@
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="5" t="s">
         <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
@@ -971,16 +1040,16 @@
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="20" t="s">
+      <c r="B7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1527,7 +1596,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1544,51 +1613,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2139,10 +2208,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2159,51 +2228,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2220,257 +2289,197 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="7"/>
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="22"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="22"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="9"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="3"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="3"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="3"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2483,6 +2492,7 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
@@ -2521,51 +2531,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="12" t="s">
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="14"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{017E35CD-7926-4603-8947-50324BB711F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB8087F-2725-4EDB-B6DB-CEE1EC48467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="2" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -361,6 +361,18 @@
   </si>
   <si>
     <t>MARCH 31, APRIL 9, 2023</t>
+  </si>
+  <si>
+    <t>MANIMTIM, JOJIT AGUILA</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>MAY 1 - 20, 2023</t>
+  </si>
+  <si>
+    <t>PERSONAL</t>
   </si>
 </sst>
 </file>
@@ -497,7 +509,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -530,6 +542,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -553,21 +571,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,51 +909,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1613,51 +1616,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2210,7 +2213,7 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -2228,51 +2231,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2290,122 +2293,122 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="23" t="s">
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="23"/>
+      <c r="F5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="13"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="23"/>
+      <c r="F6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
     <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="22"/>
-      <c r="H7" s="23"/>
+      <c r="F7" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="4" t="s">
         <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="22"/>
-      <c r="H8" s="23"/>
+      <c r="F8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
     </row>
@@ -2419,7 +2422,7 @@
       <c r="C9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="12" t="s">
         <v>103</v>
       </c>
       <c r="E9" s="4" t="s">
@@ -2513,8 +2516,8 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="F11:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2531,51 +2534,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="17" t="s">
+      <c r="G2" s="20"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="14"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2593,13 +2596,25 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="A4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="7"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB8087F-2725-4EDB-B6DB-CEE1EC48467F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E399FEBC-1981-4A5C-A4C4-6CB67F47F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -18,17 +18,28 @@
     <sheet name="1ST Q 2023" sheetId="2" r:id="rId3"/>
     <sheet name="2ND Q 2023" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="127">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -373,6 +384,42 @@
   </si>
   <si>
     <t>PERSONAL</t>
+  </si>
+  <si>
+    <t>PINEDA, DANICCA NOELLE</t>
+  </si>
+  <si>
+    <t>MEDICAL OFFICER III</t>
+  </si>
+  <si>
+    <t>DUBAI, UAE</t>
+  </si>
+  <si>
+    <t>JUNE 5-16, 2023</t>
+  </si>
+  <si>
+    <t>HERNANDEZ, DARREL JESUS M</t>
+  </si>
+  <si>
+    <t>MAY 11-14, 2023</t>
+  </si>
+  <si>
+    <t>GOMEZ, EMMA M.</t>
+  </si>
+  <si>
+    <t>ENGINEERING STAFF</t>
+  </si>
+  <si>
+    <t>MAY 12 - JUNE 3, 2023</t>
+  </si>
+  <si>
+    <t>MARUNDAN, MARIA FLOR M.</t>
+  </si>
+  <si>
+    <t>APRIL 18 - 22, 2023</t>
+  </si>
+  <si>
+    <t>APRIL 8-9, 2023</t>
   </si>
 </sst>
 </file>
@@ -509,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -572,6 +619,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2514,10 +2568,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="F11:G11"/>
+      <selection activeCell="E5" sqref="E4:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2595,18 +2649,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>114</v>
@@ -2615,93 +2669,151 @@
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="A6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="7"/>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="7"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="9"/>
+    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7"/>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
-      <c r="B8" s="5"/>
+    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>122</v>
+      </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="1"/>
+    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="8"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="11"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="11"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
@@ -2858,6 +2970,30 @@
       <c r="H24" s="8"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="3"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="3"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E399FEBC-1981-4A5C-A4C4-6CB67F47F75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EB461-52DD-4BCE-B837-4330A44D17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -22,17 +22,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -556,7 +545,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -595,6 +584,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -619,13 +609,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -963,51 +946,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1670,51 +1653,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2285,51 +2268,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2571,7 +2554,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E4:G5"/>
+      <selection activeCell="A10" sqref="A10:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2588,51 +2571,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="19" t="s">
+      <c r="F2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="19" t="s">
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="21"/>
+      <c r="J2" s="22"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="16"/>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2674,16 +2657,16 @@
       <c r="J4" s="2"/>
     </row>
     <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="5" t="s">
         <v>125</v>
       </c>
       <c r="E5" s="4" t="s">
@@ -2693,9 +2676,9 @@
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
@@ -2798,7 +2781,7 @@
       <c r="D10" s="4"/>
       <c r="E10" s="1"/>
       <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46EB461-52DD-4BCE-B837-4330A44D17CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942CE96-5964-4427-A4EA-A9794AD29667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>APRIL 8-9, 2023</t>
+  </si>
+  <si>
+    <t>LERIO, ROSEMARIE</t>
+  </si>
+  <si>
+    <t>JUNE 28- JULY 1, 2023</t>
   </si>
 </sst>
 </file>
@@ -2554,7 +2560,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G10"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2774,14 +2780,24 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11"/>
+    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>127</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="1"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>114</v>
+      </c>
       <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H10" s="9"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2942CE96-5964-4427-A4EA-A9794AD29667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E4737-C0E1-4BCE-BEA5-169F997A5B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="134">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -415,6 +415,21 @@
   </si>
   <si>
     <t>JUNE 28- JULY 1, 2023</t>
+  </si>
+  <si>
+    <t>HONGKONG</t>
+  </si>
+  <si>
+    <t>APRIL 29 - MAY 1, 2023</t>
+  </si>
+  <si>
+    <t>MAY 30 - JUNE 1, 2023</t>
+  </si>
+  <si>
+    <t>JUNE 14 -18, 2023</t>
+  </si>
+  <si>
+    <t>VIETNAM</t>
   </si>
 </sst>
 </file>
@@ -2256,8 +2271,8 @@
   </sheetPr>
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2557,10 +2572,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2686,42 +2701,42 @@
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B7" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>114</v>
@@ -2736,14 +2751,16 @@
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C8" s="5"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>114</v>
@@ -2758,109 +2775,159 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>117</v>
+        <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H9" s="8"/>
+      <c r="H9" s="7"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H10" s="9"/>
+      <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="9"/>
+    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
+    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45107</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H13" s="8"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="3"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="11"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="4"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
@@ -2993,6 +3060,54 @@
       <c r="H26" s="8"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E4737-C0E1-4BCE-BEA5-169F997A5B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D7800-89DA-4963-B0CC-68148F6942CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="4th Q 2022" sheetId="1" r:id="rId2"/>
     <sheet name="1ST Q 2023" sheetId="2" r:id="rId3"/>
     <sheet name="2ND Q 2023" sheetId="3" r:id="rId4"/>
+    <sheet name="3RD Q 2023" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="146">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -430,13 +431,71 @@
   </si>
   <si>
     <t>VIETNAM</t>
+  </si>
+  <si>
+    <t>BORJA, NECY</t>
+  </si>
+  <si>
+    <t>PENALES, GUILLERMA</t>
+  </si>
+  <si>
+    <r>
+      <t>TA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ÑEDO, MARIA EVELYN</t>
+    </r>
+  </si>
+  <si>
+    <t>MONTENEGRO, MARIA MARIZA</t>
+  </si>
+  <si>
+    <t>FELICIDARIO, PAMELA</t>
+  </si>
+  <si>
+    <r>
+      <t>PE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ÑAFIEL, MELISSA</t>
+    </r>
+  </si>
+  <si>
+    <t>ANGCAYA, ANA</t>
+  </si>
+  <si>
+    <t>AUG 8-10, 2023</t>
+  </si>
+  <si>
+    <t>LUCIANO, EMELYN</t>
+  </si>
+  <si>
+    <t>CCT FACULTY</t>
+  </si>
+  <si>
+    <t>JULY 15-19, 2023</t>
+  </si>
+  <si>
+    <t>FOR APRIL  TO JUNE 30, 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -466,6 +525,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -566,7 +631,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -629,6 +694,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2572,10 +2644,384 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="22"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="17"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="9"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+    </row>
+    <row r="8" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D12" s="12">
+        <v>45107</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F14" s="7"/>
+      <c r="G14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="9"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
+Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
+Process Summary Log Sheet</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: JUEL D. COPER
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1E82733-93FF-4F22-B095-8CC8DD452FF5}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,43 +3099,37 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>126</v>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="9"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>125</v>
-      </c>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
         <v>114</v>
       </c>
@@ -2697,47 +3137,35 @@
       <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-    </row>
-    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>130</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="9"/>
+        <v>114</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>113</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="4"/>
       <c r="E7" s="4" t="s">
         <v>114</v>
       </c>
@@ -2745,23 +3173,17 @@
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>120</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="4"/>
       <c r="E8" s="4" t="s">
         <v>114</v>
       </c>
@@ -2773,19 +3195,13 @@
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>123</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" s="4" t="s">
         <v>114</v>
       </c>
@@ -2797,19 +3213,13 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>131</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
       <c r="E10" s="4" t="s">
         <v>114</v>
       </c>
@@ -2821,18 +3231,16 @@
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>132</v>
+        <v>141</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>114</v>
@@ -2845,22 +3253,12 @@
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D12" s="12">
-        <v>45107</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>114</v>
-      </c>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9" t="s">
         <v>15</v>
@@ -2869,51 +3267,31 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>118</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="F13" s="7"/>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H13" s="8"/>
+      <c r="H13" s="7"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>114</v>
-      </c>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="7"/>
       <c r="G14" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H14" s="9"/>
+      <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
     </row>
@@ -2924,22 +3302,24 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
+      <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="3"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="11"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="4"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -3108,6 +3488,18 @@
       <c r="H30" s="8"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{447D7800-89DA-4963-B0CC-68148F6942CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9704DD1-1E7B-49C3-BEDD-BD8AB4CDD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="149">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -488,7 +488,16 @@
     <t>JULY 15-19, 2023</t>
   </si>
   <si>
-    <t>FOR APRIL  TO JUNE 30, 2023</t>
+    <t>FOR APRIL 01  TO JUNE 30, 2023</t>
+  </si>
+  <si>
+    <t>SUSA, NANETTE B.</t>
+  </si>
+  <si>
+    <t>ADMIN OFFICER V</t>
+  </si>
+  <si>
+    <t>MAY 1-14, 2023</t>
   </si>
 </sst>
 </file>
@@ -631,7 +640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -695,12 +704,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1021,8 +1029,8 @@
   </sheetPr>
   <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2644,10 +2652,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2656,7 +2664,7 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -2742,10 +2750,10 @@
         <v>114</v>
       </c>
       <c r="F4" s="9"/>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="2"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
     </row>
@@ -2766,10 +2774,10 @@
         <v>114</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="14"/>
       <c r="J5" s="14"/>
     </row>
@@ -2792,7 +2800,9 @@
       <c r="F6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="9"/>
+      <c r="G6" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H6" s="14"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
@@ -2838,10 +2848,10 @@
         <v>114</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -2862,10 +2872,10 @@
         <v>114</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -2886,10 +2896,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -2910,10 +2920,10 @@
         <v>114</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
@@ -2934,10 +2944,10 @@
         <v>114</v>
       </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
@@ -2958,10 +2968,10 @@
         <v>114</v>
       </c>
       <c r="F13" s="7"/>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="8"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -2982,12 +2992,36 @@
         <v>114</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
+    </row>
+    <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="23"/>
+      <c r="J15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3021,7 +3055,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3100,28 +3134,28 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="5" t="s">
         <v>144</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="F4" s="24"/>
+      <c r="F4" s="14"/>
       <c r="G4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9704DD1-1E7B-49C3-BEDD-BD8AB4CDD0BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F36E37-B0A4-4065-9A06-8FEA4EC4E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="152">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -498,6 +498,26 @@
   </si>
   <si>
     <t>MAY 1-14, 2023</t>
+  </si>
+  <si>
+    <r>
+      <t>DELFINO, NI</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>ÑO C.</t>
+    </r>
+  </si>
+  <si>
+    <t>AUG 1-2, 2023</t>
+  </si>
+  <si>
+    <t>JULY 28 - 31, 2023</t>
   </si>
 </sst>
 </file>
@@ -640,7 +660,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -680,6 +700,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -704,11 +730,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,51 +1070,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1754,51 +1777,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2369,51 +2392,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2654,7 +2677,7 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
@@ -2664,7 +2687,7 @@
     <col min="2" max="2" width="22.33203125" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.88671875" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" style="16" customWidth="1"/>
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
@@ -2672,51 +2695,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3000,28 +3023,28 @@
       <c r="J14" s="6"/>
     </row>
     <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="23" t="s">
+      <c r="D15" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="E15" s="23" t="s">
+      <c r="E15" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
       <c r="H15" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="23"/>
-      <c r="J15" s="23"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3054,8 +3077,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3072,51 +3095,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="20" t="s">
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="22"/>
+      <c r="J2" s="24"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3150,10 +3173,10 @@
         <v>114</v>
       </c>
       <c r="F4" s="14"/>
-      <c r="G4" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
@@ -3168,10 +3191,10 @@
         <v>114</v>
       </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="2"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="25" t="s">
+        <v>15</v>
+      </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
@@ -3186,10 +3209,10 @@
         <v>114</v>
       </c>
       <c r="F6" s="9"/>
-      <c r="G6" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
@@ -3204,10 +3227,10 @@
         <v>114</v>
       </c>
       <c r="F7" s="9"/>
-      <c r="G7" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7" s="14"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
@@ -3222,10 +3245,10 @@
         <v>114</v>
       </c>
       <c r="F8" s="9"/>
-      <c r="G8" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8" s="7"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
@@ -3240,10 +3263,10 @@
         <v>114</v>
       </c>
       <c r="F9" s="9"/>
-      <c r="G9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="7"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
@@ -3258,10 +3281,10 @@
         <v>114</v>
       </c>
       <c r="F10" s="9"/>
-      <c r="G10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="7"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
@@ -3280,38 +3303,58 @@
         <v>114</v>
       </c>
       <c r="F11" s="9"/>
-      <c r="G11" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H11" s="7"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="A12" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F12" s="9"/>
-      <c r="G12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="7"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="4"/>
+      <c r="A13" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>114</v>
+      </c>
       <c r="F13" s="9"/>
-      <c r="G13" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="7"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>
@@ -3322,9 +3365,7 @@
       <c r="D14" s="4"/>
       <c r="E14" s="1"/>
       <c r="F14" s="7"/>
-      <c r="G14" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="G14" s="9"/>
       <c r="H14" s="8"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
@@ -3336,9 +3377,7 @@
       <c r="D15" s="4"/>
       <c r="E15" s="1"/>
       <c r="F15" s="7"/>
-      <c r="G15" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="6"/>
       <c r="J15" s="6"/>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F36E37-B0A4-4065-9A06-8FEA4EC4E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9800C73-FD00-4543-9369-A95095FEB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -18,7 +18,14 @@
     <sheet name="1ST Q 2023" sheetId="2" r:id="rId3"/>
     <sheet name="2ND Q 2023" sheetId="3" r:id="rId4"/>
     <sheet name="3RD Q 2023" sheetId="5" r:id="rId5"/>
+    <sheet name="4TH Q 2023" sheetId="6" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">'1ST Q 2023'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">'2ND Q 2023'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">'3RD Q 2023'!$1:$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="5">'4TH Q 2023'!$1:$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="164">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -263,9 +270,6 @@
   </si>
   <si>
     <t>FOR JANUARY 1  TO MARCH 31, 2023</t>
-  </si>
-  <si>
-    <t>FOR APRIL  TO JUNE 31, 2023</t>
   </si>
   <si>
     <t>2/2-18/2022</t>
@@ -517,7 +521,46 @@
     <t>AUG 1-2, 2023</t>
   </si>
   <si>
-    <t>JULY 28 - 31, 2023</t>
+    <t>TOLENTINO, ABRAHAM N</t>
+  </si>
+  <si>
+    <t>FOR JULY 01 TO SEPTEMBER 30, 2023</t>
+  </si>
+  <si>
+    <t>FOR OCTOBER 01 TO DECEMBER 31, 2023</t>
+  </si>
+  <si>
+    <t>HANGZHOU, CHINA</t>
+  </si>
+  <si>
+    <t>AUG 18 TO 20, 2023</t>
+  </si>
+  <si>
+    <t>SEPT 19 TO OCT 7, 2023</t>
+  </si>
+  <si>
+    <t>ALMAREZ, GRACITA STA. ANA</t>
+  </si>
+  <si>
+    <t>NURSE</t>
+  </si>
+  <si>
+    <t>HONG KONG AND MACAO</t>
+  </si>
+  <si>
+    <t>AUG 3 TO 7, 2023</t>
+  </si>
+  <si>
+    <t>ADMIN ASST I</t>
+  </si>
+  <si>
+    <t>ADMIN ASST II</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE I</t>
+  </si>
+  <si>
+    <t>JULY 28 TO AUG 1, 2023</t>
   </si>
 </sst>
 </file>
@@ -730,7 +773,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1071,7 +1114,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -1133,16 +1176,16 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="D4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>14</v>
@@ -1157,16 +1200,16 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="D5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>14</v>
@@ -1184,13 +1227,13 @@
         <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -1208,13 +1251,13 @@
         <v>57</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>14</v>
@@ -2455,16 +2498,16 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>14</v>
@@ -2485,10 +2528,10 @@
         <v>58</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>6</v>
@@ -2509,10 +2552,10 @@
         <v>58</v>
       </c>
       <c r="C6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -2533,10 +2576,10 @@
         <v>58</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>101</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>6</v>
@@ -2557,10 +2600,10 @@
         <v>58</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
@@ -2575,16 +2618,16 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="D9" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>14</v>
@@ -2599,16 +2642,16 @@
     </row>
     <row r="10" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>43</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>14</v>
@@ -2623,16 +2666,16 @@
     </row>
     <row r="11" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="5" t="s">
         <v>108</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>109</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>14</v>
@@ -2677,8 +2720,8 @@
   </sheetPr>
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2696,7 +2739,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -2758,7 +2801,7 @@
     </row>
     <row r="4" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>17</v>
@@ -2767,10 +2810,10 @@
         <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
@@ -2782,7 +2825,7 @@
     </row>
     <row r="5" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -2791,10 +2834,10 @@
         <v>12</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -2812,10 +2855,10 @@
         <v>58</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>6</v>
@@ -2832,19 +2875,19 @@
     </row>
     <row r="7" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="F7" s="9"/>
       <c r="G7" s="9" t="s">
@@ -2856,7 +2899,7 @@
     </row>
     <row r="8" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>17</v>
@@ -2865,10 +2908,10 @@
         <v>18</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
@@ -2880,19 +2923,19 @@
     </row>
     <row r="9" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
@@ -2910,13 +2953,13 @@
         <v>58</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
@@ -2934,13 +2977,13 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
@@ -2958,13 +3001,13 @@
         <v>58</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D12" s="12">
         <v>45107</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
@@ -2976,19 +3019,19 @@
     </row>
     <row r="13" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="E13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="9"/>
@@ -3000,7 +3043,7 @@
     </row>
     <row r="14" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>35</v>
@@ -3009,10 +3052,10 @@
         <v>18</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="9"/>
@@ -3024,19 +3067,19 @@
     </row>
     <row r="15" spans="1:10" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>146</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>147</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>76</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
@@ -3075,10 +3118,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12:H13"/>
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3096,7 +3139,7 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>78</v>
+        <v>151</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="17"/>
@@ -3156,21 +3199,21 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="C4" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>144</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
@@ -3180,181 +3223,823 @@
       <c r="I4" s="14"/>
       <c r="J4" s="14"/>
     </row>
+    <row r="5" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+    </row>
+    <row r="6" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+    </row>
+    <row r="9" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+    </row>
+    <row r="10" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+    </row>
+    <row r="12" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+    </row>
+    <row r="15" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:10" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="11"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="11"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="11"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="11"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="11"/>
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="11"/>
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="11"/>
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="3"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="3"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="8"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="3"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="3"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="8"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="3"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="I2:J2"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
+Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
+Process Summary Log Sheet</oddHeader>
+    <oddFooter>&amp;LPREPARED BY: JUEL D. COPER
+&amp;D &amp;T&amp;RPage &amp;P of &amp;N</oddFooter>
+  </headerFooter>
+  <legacyDrawingHF r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49939E41-AA6D-422D-804F-BC27778BC52B}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J31"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
+        <v>152</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="24"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="19"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+    </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11" t="s">
-        <v>134</v>
-      </c>
+      <c r="A5" s="11"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E5" s="4"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="25" t="s">
-        <v>15</v>
-      </c>
+      <c r="H5" s="6"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>135</v>
-      </c>
+      <c r="A6" s="11"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
-      <c r="E6" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E6" s="4"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H6" s="6"/>
       <c r="I6" s="14"/>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="11" t="s">
-        <v>136</v>
-      </c>
+      <c r="A7" s="11"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="4"/>
-      <c r="E7" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E7" s="4"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="6" t="s">
-        <v>15</v>
-      </c>
+      <c r="H7" s="6"/>
       <c r="I7" s="14"/>
       <c r="J7" s="14"/>
     </row>
-    <row r="8" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
-        <v>137</v>
-      </c>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="11"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="4"/>
-      <c r="E8" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E8" s="4"/>
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H8" s="7"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>138</v>
-      </c>
+      <c r="A9" s="11"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="4"/>
-      <c r="E9" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E9" s="4"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
-      <c r="H9" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H9" s="7"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="11" t="s">
-        <v>139</v>
-      </c>
+      <c r="A10" s="11"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="4"/>
-      <c r="E10" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
-      <c r="H10" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H10" s="7"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="11" t="s">
-        <v>140</v>
-      </c>
+      <c r="A11" s="11"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
-      <c r="H11" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H11" s="7"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A12" s="11"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H12" s="7"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="7" t="s">
-        <v>15</v>
-      </c>
+      <c r="H13" s="7"/>
       <c r="I13" s="6"/>
       <c r="J13" s="6"/>
     </row>

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9800C73-FD00-4543-9369-A95095FEB0AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF6794A-20F3-4EA0-A4B6-6E134A514FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
   <sheets>
     <sheet name="4th Q 2022 (2)" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="170">
   <si>
     <t>NAME OF OFFICIAL/ EMPLOYEES</t>
   </si>
@@ -561,6 +561,24 @@
   </si>
   <si>
     <t>JULY 28 TO AUG 1, 2023</t>
+  </si>
+  <si>
+    <t>SEPINO, MARIE CHIARRE M.</t>
+  </si>
+  <si>
+    <t>SOCIAL WELFARE ASSISTANT</t>
+  </si>
+  <si>
+    <t>NOVEMBER 13, 2023 TO JANUARY 26, 2024</t>
+  </si>
+  <si>
+    <t>OCTOBER 21 - 25, 2023</t>
+  </si>
+  <si>
+    <t>SAUDI ARABIA</t>
+  </si>
+  <si>
+    <t>11/2 - 6 2023</t>
   </si>
 </sst>
 </file>
@@ -703,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -749,6 +767,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -773,7 +797,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1113,51 +1140,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1820,51 +1847,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2435,51 +2462,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2701,7 +2728,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="77" fitToHeight="0" orientation="landscape" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L                                      &amp;G&amp;C&amp;"-,Bold"&amp;12DILG Region IV-A (CALABARZON)
 Issuance of Certificate for Foreign Travel Authority of Local Officials and Employees
@@ -2738,51 +2765,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3120,8 +3147,8 @@
   </sheetPr>
   <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3138,51 +3165,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3455,7 +3482,7 @@
       <c r="E14" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F14" s="25" t="s">
+      <c r="F14" s="17" t="s">
         <v>15</v>
       </c>
       <c r="G14" s="9"/>
@@ -3481,7 +3508,7 @@
       </c>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="25" t="s">
+      <c r="H15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I15" s="2"/>
@@ -3505,7 +3532,7 @@
       </c>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="I16" s="14"/>
@@ -3842,8 +3869,8 @@
   </sheetPr>
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3856,55 +3883,55 @@
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="22" t="s">
+      <c r="G2" s="25"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="24"/>
+      <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="A3" s="21"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3914,49 +3941,89 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="27" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="4"/>
+        <v>164</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="14"/>
       <c r="G4" s="9"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="H4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="6">
+        <v>1</v>
+      </c>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
+      <c r="H5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="6">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
+    <row r="6" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
       <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -3968,7 +4035,7 @@
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="6"/>
-      <c r="I7" s="14"/>
+      <c r="I7" s="6"/>
       <c r="J7" s="14"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">

--- a/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
+++ b/SHARED FOLDER/DILG MONTHLY FOREIGN TRAVEL 2022.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\SHARED FOLDER\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF6794A-20F3-4EA0-A4B6-6E134A514FB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5781E919-5178-41CA-93A7-0C2F45540E89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{6E45743F-9ED8-4ED6-97BA-62411DEB9BB6}"/>
   </bookViews>
@@ -773,6 +773,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,12 +802,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1140,51 +1140,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,51 +1847,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2462,51 +2462,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -2765,51 +2765,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3165,51 +3165,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>151</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3870,7 +3870,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="A6" sqref="A6:B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3883,55 +3883,55 @@
     <col min="6" max="6" width="16.88671875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.21875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.33203125" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="21" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="24" t="s">
+      <c r="F2" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="25"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="24" t="s">
+      <c r="G2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
+      <c r="J2" s="28"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
+      <c r="A3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="2" t="s">
         <v>6</v>
       </c>
@@ -3941,7 +3941,7 @@
       <c r="H3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="27" t="s">
+      <c r="I3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="J3" s="2" t="s">
